--- a/Web/YTTX/mall_admin/菜单模块.xlsx
+++ b/Web/YTTX/mall_admin/菜单模块.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>模块</t>
   </si>
@@ -30,10 +30,13 @@
     <t>页面名称</t>
   </si>
   <si>
+    <t>配置情况</t>
+  </si>
+  <si>
     <t>会员关系模块(C端)</t>
   </si>
   <si>
-    <t>userC</t>
+    <t>bzw-userC</t>
   </si>
   <si>
     <t>bzw-userC-list</t>
@@ -42,10 +45,13 @@
     <t>用户管理列表</t>
   </si>
   <si>
+    <t>已有</t>
+  </si>
+  <si>
     <t>财务模块</t>
   </si>
   <si>
-    <t>finance</t>
+    <t>bzw-finance</t>
   </si>
   <si>
     <t>bzw-finance-cardmanage</t>
@@ -69,7 +75,7 @@
     <t>分润模块(C端)</t>
   </si>
   <si>
-    <t>profitC</t>
+    <t>bzw-profitC</t>
   </si>
   <si>
     <t>bzw-profitC-list</t>
@@ -82,6 +88,18 @@
   </si>
   <si>
     <t>分润设置</t>
+  </si>
+  <si>
+    <t>订单模块(C端)</t>
+  </si>
+  <si>
+    <t>bzw-orderC</t>
+  </si>
+  <si>
+    <t>bzw-orderC-list</t>
+  </si>
+  <si>
+    <t>订单管理</t>
   </si>
 </sst>
 </file>
@@ -89,10 +107,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -117,27 +135,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -160,6 +158,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -183,6 +219,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -190,31 +242,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -222,14 +256,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -241,14 +267,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,187 +287,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,11 +490,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,17 +514,43 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,28 +570,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,21 +587,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -577,10 +595,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -589,133 +607,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1082,24 +1100,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="20.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="14.75" style="3" customWidth="1"/>
     <col min="3" max="3" width="38" style="3" customWidth="1"/>
     <col min="4" max="4" width="18.75" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="3"/>
+    <col min="5" max="5" width="12.375" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="41" customHeight="1" spans="1:4">
+    <row r="1" s="1" customFormat="1" ht="41" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1112,76 +1131,110 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" ht="29" customHeight="1" spans="1:4">
+    <row r="2" ht="29" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" ht="29" customHeight="1" spans="1:4">
+    <row r="3" ht="29" customHeight="1" spans="1:5">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="4" ht="29" customHeight="1" spans="3:4">
+    <row r="4" ht="29" customHeight="1" spans="3:5">
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="5" ht="29" customHeight="1" spans="3:4">
+    <row r="5" ht="29" customHeight="1" spans="3:5">
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="6" ht="29" customHeight="1" spans="1:4">
+    <row r="6" ht="29" customHeight="1" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="29" customHeight="1" spans="1:4">
+    <row r="7" s="2" customFormat="1" ht="29" customHeight="1" spans="1:5">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="8" ht="29" customHeight="1"/>
+    <row r="8" ht="29" customHeight="1" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="9" ht="29" customHeight="1"/>
     <row r="10" ht="29" customHeight="1"/>
     <row r="11" ht="29" customHeight="1"/>

--- a/Web/YTTX/mall_admin/菜单模块.xlsx
+++ b/Web/YTTX/mall_admin/菜单模块.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>模块</t>
   </si>
@@ -100,6 +100,18 @@
   </si>
   <si>
     <t>订单管理</t>
+  </si>
+  <si>
+    <t>财务模块(C端)</t>
+  </si>
+  <si>
+    <t>bzw-financeC</t>
+  </si>
+  <si>
+    <t>bzw-financeC-cardmanage</t>
+  </si>
+  <si>
+    <t>bzw-financeC-cashmanage</t>
   </si>
 </sst>
 </file>
@@ -107,9 +119,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -129,7 +141,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,7 +171,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,6 +201,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,17 +223,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -212,6 +245,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -221,52 +278,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,19 +299,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,43 +461,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,115 +473,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,26 +528,20 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,6 +562,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -569,24 +599,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -595,10 +607,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -607,133 +619,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1105,7 +1117,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1221,7 +1233,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" ht="29" customHeight="1" spans="1:4">
+    <row r="8" ht="29" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
@@ -1234,9 +1246,32 @@
       <c r="D8" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="9" ht="29" customHeight="1"/>
-    <row r="10" ht="29" customHeight="1"/>
+    <row r="9" ht="29" customHeight="1" spans="1:4">
+      <c r="A9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" ht="29" customHeight="1" spans="3:4">
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="11" ht="29" customHeight="1"/>
     <row r="12" ht="29" customHeight="1"/>
     <row r="13" ht="29" customHeight="1"/>
@@ -1287,11 +1322,13 @@
     <row r="58" ht="29" customHeight="1"/>
     <row r="59" ht="29" customHeight="1"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B9:B10"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
